--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,97 +40,100 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>brilliant</t>
   </si>
   <si>
     <t>great</t>
@@ -139,21 +142,18 @@
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>social</t>
@@ -532,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -667,13 +670,13 @@
         <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +770,13 @@
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,13 +820,13 @@
         <v>41</v>
       </c>
       <c r="K7">
-        <v>0.8181818181818182</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.631578947368421</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9134615384615384</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -993,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.5517241379310345</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.5066666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1170,13 @@
         <v>48</v>
       </c>
       <c r="K14">
-        <v>0.3684210526315789</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1220,13 @@
         <v>49</v>
       </c>
       <c r="K15">
-        <v>0.04371584699453552</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1235,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1050</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1261,7 +1264,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>0.03825136612021858</v>
+      </c>
+      <c r="L16">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1056</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1269,13 +1296,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1287,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1321,13 +1348,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4710144927536232</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1339,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1347,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4782608695652174</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1365,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1399,7 +1426,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4375</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1417,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1425,13 +1452,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1443,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1451,13 +1478,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3928571428571428</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1469,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1477,13 +1504,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3191489361702128</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1495,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1503,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3043478260869565</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1521,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1529,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2857142857142857</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1547,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1555,13 +1582,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2692307692307692</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1573,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1581,13 +1608,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2564102564102564</v>
+        <v>0.25</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1599,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1607,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1625,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1633,13 +1660,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1282051282051282</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1651,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
